--- a/data/heatmap.xlsx
+++ b/data/heatmap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,64 +16,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednusday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
-    <t>Evening</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>01:00 AM PT</t>
+  </si>
+  <si>
+    <t>02:00 AM PT</t>
+  </si>
+  <si>
+    <t>03:00 AM PT</t>
+  </si>
+  <si>
+    <t>04:00 AM PT</t>
+  </si>
+  <si>
+    <t>05:00 AM PT</t>
+  </si>
+  <si>
+    <t>06:00 AM PT</t>
+  </si>
+  <si>
+    <t>07:00 AM PT</t>
+  </si>
+  <si>
+    <t>08:00 AM PT</t>
+  </si>
+  <si>
+    <t>09:00 AM PT</t>
+  </si>
+  <si>
+    <t>10:00 AM PT</t>
+  </si>
+  <si>
+    <t>11:00 AM PT</t>
+  </si>
+  <si>
+    <t>Noon</t>
+  </si>
+  <si>
+    <t>01:00 PM PT</t>
+  </si>
+  <si>
+    <t>02:00 PM PT</t>
+  </si>
+  <si>
+    <t>03:00 PM PT</t>
+  </si>
+  <si>
+    <t>04:00 PM PT</t>
+  </si>
+  <si>
+    <t>05:00 PM PT</t>
+  </si>
+  <si>
+    <t>06:00 PM PT</t>
+  </si>
+  <si>
+    <t>07:00 PM PT</t>
+  </si>
+  <si>
+    <t>08:00 PM PT</t>
+  </si>
+  <si>
+    <t>09:00 PM PT</t>
+  </si>
+  <si>
+    <t>10:00 PM PT</t>
+  </si>
+  <si>
+    <t>11:00 PM PT</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +150,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,113 +446,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>487.6</v>
+      </c>
+      <c r="C2">
+        <v>486.6</v>
+      </c>
+      <c r="D2">
+        <v>486.4</v>
+      </c>
+      <c r="E2">
+        <v>476</v>
+      </c>
+      <c r="F2">
+        <v>487.6</v>
+      </c>
+      <c r="G2">
+        <v>490.2</v>
+      </c>
+      <c r="H2">
+        <v>480.2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>480</v>
+      </c>
+      <c r="C3">
+        <v>485.2</v>
+      </c>
+      <c r="D3">
+        <v>483.8</v>
+      </c>
+      <c r="E3">
+        <v>475.2</v>
+      </c>
+      <c r="F3">
+        <v>484.6</v>
+      </c>
+      <c r="G3">
+        <v>488.8</v>
+      </c>
+      <c r="H3">
+        <v>481.8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="B4">
+        <v>488.4</v>
+      </c>
+      <c r="C4">
+        <v>488</v>
+      </c>
+      <c r="D4">
+        <v>483.2</v>
+      </c>
+      <c r="E4">
+        <v>474.6</v>
+      </c>
+      <c r="F4">
+        <v>487.2</v>
+      </c>
+      <c r="G4">
+        <v>492.4</v>
+      </c>
+      <c r="H4">
+        <v>486.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>490.6</v>
+      </c>
+      <c r="C5">
+        <v>491.8</v>
+      </c>
+      <c r="D5">
+        <v>492.2</v>
+      </c>
+      <c r="E5">
+        <v>483.4</v>
+      </c>
+      <c r="F5">
+        <v>486</v>
+      </c>
+      <c r="G5">
+        <v>492.6</v>
+      </c>
+      <c r="H5">
+        <v>490.4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>500.6</v>
+      </c>
+      <c r="C6">
+        <v>502.8</v>
+      </c>
+      <c r="D6">
+        <v>506</v>
+      </c>
+      <c r="E6">
+        <v>490.2</v>
+      </c>
+      <c r="F6">
+        <v>497.4</v>
+      </c>
+      <c r="G6">
+        <v>505.2</v>
+      </c>
+      <c r="H6">
+        <v>497.4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>493</v>
+      </c>
+      <c r="C7">
+        <v>514.6</v>
+      </c>
+      <c r="D7">
+        <v>511.6</v>
+      </c>
+      <c r="E7">
+        <v>515</v>
+      </c>
+      <c r="F7">
+        <v>511</v>
+      </c>
+      <c r="G7">
+        <v>517</v>
+      </c>
+      <c r="H7">
+        <v>504.8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>512.4</v>
+      </c>
+      <c r="C8">
+        <v>543</v>
+      </c>
+      <c r="D8">
+        <v>543.6</v>
+      </c>
+      <c r="E8">
+        <v>544.6</v>
+      </c>
+      <c r="F8">
+        <v>541.4</v>
+      </c>
+      <c r="G8">
+        <v>538.4</v>
+      </c>
+      <c r="H8">
+        <v>515</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="C9">
+        <v>557.6</v>
+      </c>
+      <c r="D9">
+        <v>559.20000000000005</v>
+      </c>
+      <c r="E9">
+        <v>549.6</v>
+      </c>
+      <c r="F9">
+        <v>550</v>
+      </c>
+      <c r="G9">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="H9">
+        <v>522.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>536.79999999999995</v>
+      </c>
+      <c r="C10">
+        <v>575</v>
+      </c>
+      <c r="D10">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="E10">
+        <v>558.79999999999995</v>
+      </c>
+      <c r="F10">
+        <v>564.4</v>
+      </c>
+      <c r="G10">
+        <v>560.4</v>
+      </c>
+      <c r="H10">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>534</v>
+      </c>
+      <c r="C11">
+        <v>576.6</v>
+      </c>
+      <c r="D11">
+        <v>558.4</v>
+      </c>
+      <c r="E11">
+        <v>585.20000000000005</v>
+      </c>
+      <c r="F11">
+        <v>563</v>
+      </c>
+      <c r="G11">
+        <v>551.4</v>
+      </c>
+      <c r="H11">
+        <v>528.79999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="C12">
+        <v>574.4</v>
+      </c>
+      <c r="D12">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="E12">
+        <v>555</v>
+      </c>
+      <c r="F12">
+        <v>572.4</v>
+      </c>
+      <c r="G12">
+        <v>555.79999999999995</v>
+      </c>
+      <c r="H12">
+        <v>530.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>537.79999999999995</v>
+      </c>
+      <c r="C13">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="D13">
+        <v>570</v>
+      </c>
+      <c r="E13">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="F13">
+        <v>579.79999999999995</v>
+      </c>
+      <c r="G13">
+        <v>561</v>
+      </c>
+      <c r="H13">
+        <v>531.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>544.6</v>
+      </c>
+      <c r="C14">
+        <v>579.4</v>
+      </c>
+      <c r="D14">
+        <v>564.6</v>
+      </c>
+      <c r="E14">
+        <v>554</v>
+      </c>
+      <c r="F14">
+        <v>592.4</v>
+      </c>
+      <c r="G14">
+        <v>557.20000000000005</v>
+      </c>
+      <c r="H14">
+        <v>526.79999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="C15">
+        <v>569.4</v>
+      </c>
+      <c r="D15">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="E15">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="F15">
+        <v>578</v>
+      </c>
+      <c r="G15">
+        <v>561.79999999999995</v>
+      </c>
+      <c r="H15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="B16">
+        <v>544.20000000000005</v>
+      </c>
+      <c r="C16">
+        <v>567.6</v>
+      </c>
+      <c r="D16">
+        <v>554.4</v>
+      </c>
+      <c r="E16">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="F16">
+        <v>556</v>
+      </c>
+      <c r="G16">
+        <v>549</v>
+      </c>
+      <c r="H16">
+        <v>520.79999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="C17">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="D17">
+        <v>557.4</v>
+      </c>
+      <c r="E17">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="F17">
+        <v>575.79999999999995</v>
+      </c>
+      <c r="G17">
+        <v>536.4</v>
+      </c>
+      <c r="H17">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>542.79999999999995</v>
+      </c>
+      <c r="C18">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="D18">
+        <v>556.6</v>
+      </c>
+      <c r="E18">
+        <v>568.6</v>
+      </c>
+      <c r="F18">
+        <v>565.79999999999995</v>
+      </c>
+      <c r="G18">
+        <v>536</v>
+      </c>
+      <c r="H18">
+        <v>520.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>554.4</v>
+      </c>
+      <c r="C19">
+        <v>574.4</v>
+      </c>
+      <c r="D19">
+        <v>561.20000000000005</v>
+      </c>
+      <c r="E19">
+        <v>601</v>
+      </c>
+      <c r="F19">
+        <v>551.4</v>
+      </c>
+      <c r="G19">
+        <v>530.6</v>
+      </c>
+      <c r="H19">
+        <v>526.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="C20">
+        <v>580.20000000000005</v>
+      </c>
+      <c r="D20">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="E20">
+        <v>580.6</v>
+      </c>
+      <c r="F20">
+        <v>562.4</v>
+      </c>
+      <c r="G20">
+        <v>533</v>
+      </c>
+      <c r="H20">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>540</v>
+      </c>
+      <c r="C21">
+        <v>567.4</v>
+      </c>
+      <c r="D21">
+        <v>537.79999999999995</v>
+      </c>
+      <c r="E21">
+        <v>562.4</v>
+      </c>
+      <c r="F21">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="G21">
+        <v>534</v>
+      </c>
+      <c r="H21">
+        <v>526.79999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="C22">
+        <v>538.79999999999995</v>
+      </c>
+      <c r="D22">
+        <v>513.4</v>
+      </c>
+      <c r="E22">
+        <v>523.4</v>
+      </c>
+      <c r="F22">
+        <v>529.6</v>
+      </c>
+      <c r="G22">
+        <v>511.6</v>
+      </c>
+      <c r="H22">
+        <v>512.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>502.4</v>
+      </c>
+      <c r="C23">
+        <v>514.6</v>
+      </c>
+      <c r="D23">
+        <v>501.8</v>
+      </c>
+      <c r="E23">
+        <v>501.6</v>
+      </c>
+      <c r="F23">
+        <v>504.8</v>
+      </c>
+      <c r="G23">
+        <v>503.6</v>
+      </c>
+      <c r="H23">
+        <v>509.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>499.2</v>
+      </c>
+      <c r="C24">
+        <v>502.8</v>
+      </c>
+      <c r="D24">
+        <v>492.4</v>
+      </c>
+      <c r="E24">
+        <v>495</v>
+      </c>
+      <c r="F24">
+        <v>497.8</v>
+      </c>
+      <c r="G24">
+        <v>492.6</v>
+      </c>
+      <c r="H24">
+        <v>495.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>-10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="B25">
+        <v>495.4</v>
+      </c>
+      <c r="C25">
+        <v>498.2</v>
+      </c>
+      <c r="D25">
+        <v>478.2</v>
+      </c>
+      <c r="E25">
+        <v>489.2</v>
+      </c>
+      <c r="F25">
+        <v>495.6</v>
+      </c>
+      <c r="G25">
+        <v>486.6</v>
+      </c>
+      <c r="H25">
+        <v>490.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
